--- a/otus_percent.xlsx
+++ b/otus_percent.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vojta\Drive\Laborka\Data\Manualy\Scripts_commands\shiny_ordinace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vojta\Drive\Laborka\Data\Manualy\Scripts_commands\shiny_NMDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8496" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="otus" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
   <si>
     <t>cluster_name</t>
   </si>
@@ -383,9 +383,6 @@
   </si>
   <si>
     <t>VOJ111</t>
-  </si>
-  <si>
-    <t>VOJ112</t>
   </si>
   <si>
     <t>VOJ113</t>
@@ -1240,15 +1237,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DR11"/>
+  <dimension ref="A1:DQ11"/>
   <sheetViews>
-    <sheetView topLeftCell="CZ1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:DR11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1612,11 +1607,8 @@
       <c r="DQ1" t="s">
         <v>130</v>
       </c>
-      <c r="DR1" t="s">
-        <v>131</v>
-      </c>
     </row>
-    <row r="2" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1951,40 +1943,37 @@
         <v>2.2449783379283201</v>
       </c>
       <c r="DH2">
-        <v>2.9468201754385999</v>
+        <v>7.3015873015872996</v>
       </c>
       <c r="DI2">
-        <v>7.3015873015872996</v>
+        <v>0.951814396192742</v>
       </c>
       <c r="DJ2">
-        <v>0.951814396192742</v>
+        <v>3.1227921435636601</v>
       </c>
       <c r="DK2">
-        <v>3.1227921435636601</v>
+        <v>3.0882583477034</v>
       </c>
       <c r="DL2">
-        <v>3.0882583477034</v>
+        <v>2.2237993849065498</v>
       </c>
       <c r="DM2">
-        <v>2.2237993849065498</v>
+        <v>2.2714526079641102</v>
       </c>
       <c r="DN2">
-        <v>2.2714526079641102</v>
+        <v>3.8916891337475099</v>
       </c>
       <c r="DO2">
-        <v>3.8916891337475099</v>
+        <v>0.98097502972651596</v>
       </c>
       <c r="DP2">
-        <v>0.98097502972651596</v>
+        <v>4.7013672343487602</v>
       </c>
       <c r="DQ2">
-        <v>4.7013672343487602</v>
-      </c>
-      <c r="DR2">
         <v>3.1462281015373601</v>
       </c>
     </row>
-    <row r="3" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2319,40 +2308,37 @@
         <v>0.29539188656951598</v>
       </c>
       <c r="DH3">
-        <v>0.79495614035087703</v>
+        <v>1.8694885361552001</v>
       </c>
       <c r="DI3">
-        <v>1.8694885361552001</v>
+        <v>4.1344437834622196</v>
       </c>
       <c r="DJ3">
-        <v>4.1344437834622196</v>
+        <v>3.8293062031934402</v>
       </c>
       <c r="DK3">
-        <v>3.8293062031934402</v>
+        <v>5.64351779275749</v>
       </c>
       <c r="DL3">
-        <v>5.64351779275749</v>
+        <v>0.42583392476934001</v>
       </c>
       <c r="DM3">
-        <v>0.42583392476934001</v>
+        <v>1.03757711721817</v>
       </c>
       <c r="DN3">
-        <v>1.03757711721817</v>
+        <v>3.7744695815261999</v>
       </c>
       <c r="DO3">
-        <v>3.7744695815261999</v>
+        <v>0.68370986920332899</v>
       </c>
       <c r="DP3">
-        <v>0.68370986920332899</v>
+        <v>5.5888702326697004</v>
       </c>
       <c r="DQ3">
-        <v>5.5888702326697004</v>
-      </c>
-      <c r="DR3">
         <v>2.5205577404361801</v>
       </c>
     </row>
-    <row r="4" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2687,40 +2673,37 @@
         <v>5.9078377313903099E-2</v>
       </c>
       <c r="DH4">
-        <v>2.6315789473684199</v>
+        <v>3.6155202821869499</v>
       </c>
       <c r="DI4">
-        <v>3.6155202821869499</v>
+        <v>0.14872099940511599</v>
       </c>
       <c r="DJ4">
-        <v>0.14872099940511599</v>
+        <v>2.6564928642079999</v>
       </c>
       <c r="DK4">
-        <v>2.6564928642079999</v>
+        <v>3.0255525944505401</v>
       </c>
       <c r="DL4">
-        <v>3.0255525944505401</v>
+        <v>0.37851904423941302</v>
       </c>
       <c r="DM4">
-        <v>0.37851904423941302</v>
+        <v>5.2439708356702202</v>
       </c>
       <c r="DN4">
-        <v>5.2439708356702202</v>
+        <v>3.3290352830852199</v>
       </c>
       <c r="DO4">
-        <v>3.3290352830852199</v>
+        <v>4.3697978596908396</v>
       </c>
       <c r="DP4">
-        <v>4.3697978596908396</v>
+        <v>1.0793955384984399</v>
       </c>
       <c r="DQ4">
-        <v>1.0793955384984399</v>
-      </c>
-      <c r="DR4">
         <v>3.3071147658205202</v>
       </c>
     </row>
-    <row r="5" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3055,40 +3038,37 @@
         <v>0.63016935801496698</v>
       </c>
       <c r="DH5">
-        <v>4.2077850877192997</v>
+        <v>7.1075837742504397</v>
       </c>
       <c r="DI5">
-        <v>7.1075837742504397</v>
+        <v>0.17846519928613899</v>
       </c>
       <c r="DJ5">
-        <v>0.17846519928613899</v>
+        <v>4.7901653242899496</v>
       </c>
       <c r="DK5">
-        <v>4.7901653242899496</v>
+        <v>0.59570465590217903</v>
       </c>
       <c r="DL5">
-        <v>0.59570465590217903</v>
+        <v>0.21291696238467001</v>
       </c>
       <c r="DM5">
-        <v>0.21291696238467001</v>
+        <v>4.3185642176107697</v>
       </c>
       <c r="DN5">
-        <v>4.3185642176107697</v>
+        <v>1.1018637908803199</v>
       </c>
       <c r="DO5">
-        <v>1.1018637908803199</v>
+        <v>5.79667063020214</v>
       </c>
       <c r="DP5">
-        <v>5.79667063020214</v>
+        <v>0.67162389062125205</v>
       </c>
       <c r="DQ5">
-        <v>0.67162389062125205</v>
-      </c>
-      <c r="DR5">
         <v>6.0779406506971796</v>
       </c>
     </row>
-    <row r="6" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3423,40 +3403,37 @@
         <v>0</v>
       </c>
       <c r="DH6">
-        <v>6.60635964912281</v>
+        <v>0.79365079365079405</v>
       </c>
       <c r="DI6">
-        <v>0.79365079365079405</v>
+        <v>8.8191552647233795</v>
       </c>
       <c r="DJ6">
-        <v>8.8191552647233795</v>
+        <v>0.86194715274834</v>
       </c>
       <c r="DK6">
-        <v>0.86194715274834</v>
+        <v>0.470293149396457</v>
       </c>
       <c r="DL6">
-        <v>0.470293149396457</v>
+        <v>1.1592145729832</v>
       </c>
       <c r="DM6">
-        <v>1.1592145729832</v>
+        <v>1.14974761637689</v>
       </c>
       <c r="DN6">
-        <v>1.14974761637689</v>
+        <v>2.93048880553276</v>
       </c>
       <c r="DO6">
-        <v>2.93048880553276</v>
+        <v>1.51605231866825</v>
       </c>
       <c r="DP6">
-        <v>1.51605231866825</v>
+        <v>0.50371791796593901</v>
       </c>
       <c r="DQ6">
-        <v>0.50371791796593901</v>
-      </c>
-      <c r="DR6">
         <v>0.92956739363603902</v>
       </c>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3791,40 +3768,37 @@
         <v>0</v>
       </c>
       <c r="DH7">
-        <v>10.375548245614</v>
+        <v>0.141093474426808</v>
       </c>
       <c r="DI7">
-        <v>0.141093474426808</v>
+        <v>1.90362879238548</v>
       </c>
       <c r="DJ7">
-        <v>1.90362879238548</v>
+        <v>1.94997880457821</v>
       </c>
       <c r="DK7">
-        <v>1.94997880457821</v>
+        <v>1.22276218843079</v>
       </c>
       <c r="DL7">
-        <v>1.22276218843079</v>
+        <v>0.94629761059853301</v>
       </c>
       <c r="DM7">
-        <v>0.94629761059853301</v>
+        <v>0.28042624789680298</v>
       </c>
       <c r="DN7">
-        <v>0.28042624789680298</v>
+        <v>2.2388934474270301</v>
       </c>
       <c r="DO7">
-        <v>2.2388934474270301</v>
+        <v>0.62425683709869195</v>
       </c>
       <c r="DP7">
-        <v>0.62425683709869195</v>
+        <v>1.43919405133125</v>
       </c>
       <c r="DQ7">
-        <v>1.43919405133125</v>
-      </c>
-      <c r="DR7">
         <v>0.50053628888094404</v>
       </c>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4159,40 +4133,37 @@
         <v>7.8771169751870804E-2</v>
       </c>
       <c r="DH8">
-        <v>1.1787280701754399</v>
+        <v>2.25749559082892</v>
       </c>
       <c r="DI8">
-        <v>2.25749559082892</v>
+        <v>0.28256989886972</v>
       </c>
       <c r="DJ8">
-        <v>0.28256989886972</v>
+        <v>2.5717111770524199</v>
       </c>
       <c r="DK8">
-        <v>2.5717111770524199</v>
+        <v>2.0222605424047702</v>
       </c>
       <c r="DL8">
-        <v>2.0222605424047702</v>
+        <v>0.36669032410693198</v>
       </c>
       <c r="DM8">
-        <v>0.36669032410693198</v>
+        <v>2.0751542344363401</v>
       </c>
       <c r="DN8">
-        <v>2.0751542344363401</v>
+        <v>1.6762395967647401</v>
       </c>
       <c r="DO8">
-        <v>1.6762395967647401</v>
+        <v>1.9024970273483901</v>
       </c>
       <c r="DP8">
-        <v>1.9024970273483901</v>
+        <v>1.1033821060206299</v>
       </c>
       <c r="DQ8">
-        <v>1.1033821060206299</v>
-      </c>
-      <c r="DR8">
         <v>2.3239184840900999</v>
       </c>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4527,40 +4498,37 @@
         <v>0.27569909413154797</v>
       </c>
       <c r="DH9">
-        <v>2.7412280701754398E-2</v>
+        <v>0.52910052910052896</v>
       </c>
       <c r="DI9">
-        <v>0.52910052910052896</v>
+        <v>1.59131469363474</v>
       </c>
       <c r="DJ9">
-        <v>1.59131469363474</v>
+        <v>5.6521124770382902E-2</v>
       </c>
       <c r="DK9">
-        <v>5.6521124770382902E-2</v>
+        <v>0.40758739614359601</v>
       </c>
       <c r="DL9">
-        <v>0.40758739614359601</v>
+        <v>6.6122545540572499</v>
       </c>
       <c r="DM9">
-        <v>6.6122545540572499</v>
+        <v>0.196298373527762</v>
       </c>
       <c r="DN9">
-        <v>0.196298373527762</v>
+        <v>0.39854647755245598</v>
       </c>
       <c r="DO9">
-        <v>0.39854647755245598</v>
+        <v>0.267538644470868</v>
       </c>
       <c r="DP9">
-        <v>0.267538644470868</v>
+        <v>1.27128807867594</v>
       </c>
       <c r="DQ9">
-        <v>1.27128807867594</v>
-      </c>
-      <c r="DR9">
         <v>0.35752592062924599</v>
       </c>
     </row>
-    <row r="10" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4907,28 +4875,25 @@
         <v>0</v>
       </c>
       <c r="DL10">
-        <v>0</v>
+        <v>0.72155192808138202</v>
       </c>
       <c r="DM10">
-        <v>0.72155192808138202</v>
+        <v>0</v>
       </c>
       <c r="DN10">
-        <v>0</v>
+        <v>1.1721955222131099E-2</v>
       </c>
       <c r="DO10">
-        <v>1.1721955222131099E-2</v>
+        <v>0</v>
       </c>
       <c r="DP10">
-        <v>0</v>
+        <v>0.95946270088750296</v>
       </c>
       <c r="DQ10">
-        <v>0.95946270088750296</v>
-      </c>
-      <c r="DR10">
         <v>0.69717554522702896</v>
       </c>
     </row>
-    <row r="11" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5263,36 +5228,33 @@
         <v>0</v>
       </c>
       <c r="DH11">
-        <v>1.4802631578947401</v>
+        <v>0.758377425044092</v>
       </c>
       <c r="DI11">
-        <v>0.758377425044092</v>
+        <v>0</v>
       </c>
       <c r="DJ11">
-        <v>0</v>
+        <v>0.72064434082238205</v>
       </c>
       <c r="DK11">
-        <v>0.72064434082238205</v>
+        <v>9.4058629879291394E-2</v>
       </c>
       <c r="DL11">
-        <v>9.4058629879291394E-2</v>
+        <v>2.36574402649633E-2</v>
       </c>
       <c r="DM11">
-        <v>2.36574402649633E-2</v>
+        <v>6.4778463264161497</v>
       </c>
       <c r="DN11">
-        <v>6.4778463264161497</v>
+        <v>0.15238541788770399</v>
       </c>
       <c r="DO11">
-        <v>0.15238541788770399</v>
+        <v>2.14030915576694</v>
       </c>
       <c r="DP11">
-        <v>2.14030915576694</v>
+        <v>0</v>
       </c>
       <c r="DQ11">
-        <v>0</v>
-      </c>
-      <c r="DR11">
         <v>0.82230961744726505</v>
       </c>
     </row>
@@ -5303,15 +5265,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DR3"/>
+  <dimension ref="A1:DQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+    <sheetView topLeftCell="CY1" workbookViewId="0">
+      <selection activeCell="DD6" sqref="DD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5675,11 +5637,8 @@
       <c r="DQ1" t="s">
         <v>130</v>
       </c>
-      <c r="DR1" t="s">
-        <v>131</v>
-      </c>
     </row>
-    <row r="2" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6014,40 +5973,37 @@
         <v>2.2449783379283201</v>
       </c>
       <c r="DH2">
-        <v>2.9468201754385999</v>
+        <v>7.3015873015872996</v>
       </c>
       <c r="DI2">
-        <v>7.3015873015872996</v>
+        <v>0.951814396192742</v>
       </c>
       <c r="DJ2">
-        <v>0.951814396192742</v>
+        <v>3.1227921435636601</v>
       </c>
       <c r="DK2">
-        <v>3.1227921435636601</v>
+        <v>3.0882583477034</v>
       </c>
       <c r="DL2">
-        <v>3.0882583477034</v>
+        <v>2.2237993849065498</v>
       </c>
       <c r="DM2">
-        <v>2.2237993849065498</v>
+        <v>2.2714526079641102</v>
       </c>
       <c r="DN2">
-        <v>2.2714526079641102</v>
+        <v>3.8916891337475099</v>
       </c>
       <c r="DO2">
-        <v>3.8916891337475099</v>
+        <v>0.98097502972651596</v>
       </c>
       <c r="DP2">
-        <v>0.98097502972651596</v>
+        <v>4.7013672343487602</v>
       </c>
       <c r="DQ2">
-        <v>4.7013672343487602</v>
-      </c>
-      <c r="DR2">
         <v>3.1462281015373601</v>
       </c>
     </row>
-    <row r="3" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6382,36 +6338,33 @@
         <v>0.29539188656951598</v>
       </c>
       <c r="DH3">
-        <v>0.79495614035087703</v>
+        <v>1.8694885361552001</v>
       </c>
       <c r="DI3">
-        <v>1.8694885361552001</v>
+        <v>4.1344437834622196</v>
       </c>
       <c r="DJ3">
-        <v>4.1344437834622196</v>
+        <v>3.8293062031934402</v>
       </c>
       <c r="DK3">
-        <v>3.8293062031934402</v>
+        <v>5.64351779275749</v>
       </c>
       <c r="DL3">
-        <v>5.64351779275749</v>
+        <v>0.42583392476934001</v>
       </c>
       <c r="DM3">
-        <v>0.42583392476934001</v>
+        <v>1.03757711721817</v>
       </c>
       <c r="DN3">
-        <v>1.03757711721817</v>
+        <v>3.7744695815261999</v>
       </c>
       <c r="DO3">
-        <v>3.7744695815261999</v>
+        <v>0.68370986920332899</v>
       </c>
       <c r="DP3">
-        <v>0.68370986920332899</v>
+        <v>5.5888702326697004</v>
       </c>
       <c r="DQ3">
-        <v>5.5888702326697004</v>
-      </c>
-      <c r="DR3">
         <v>2.5205577404361801</v>
       </c>
     </row>
